--- a/biology/Médecine/Séquence_de_Potter/Séquence_de_Potter.xlsx
+++ b/biology/Médecine/Séquence_de_Potter/Séquence_de_Potter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9quence_de_Potter</t>
+          <t>Séquence_de_Potter</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La séquence (ou le syndrome) de Potter est une série de malformations caractéristiques du nouveau-né à la suite d'un oligoamnios, c'est-à-dire une quantité insuffisante de liquide amniotique. Elle a été décrite par Edith Potter en 1946.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9quence_de_Potter</t>
+          <t>Séquence_de_Potter</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9quence_de_Potter</t>
+          <t>Séquence_de_Potter</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,16 +551,87 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle se caractérise par une agénésie rénale (qui cause l’oligo-anamnios), un faciès typique et des malformations des quatre membres.
-Faciès caractéristique
-Nez aplati
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se caractérise par une agénésie rénale (qui cause l’oligo-anamnios), un faciès typique et des malformations des quatre membres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Séquence_de_Potter</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9quence_de_Potter</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Faciès caractéristique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nez aplati
 Menton reculé
 Plis importants sous les yeux
-Oreilles implantées très caudalement par rapport à la normale, avec un pavillon très large et déformé.
-Autres malformations
-Dislocation des hanches
+Oreilles implantées très caudalement par rapport à la normale, avec un pavillon très large et déformé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Séquence_de_Potter</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9quence_de_Potter</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres malformations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dislocation des hanches
 Déformation des mains
 Pied-bot
 Hypoplasie pulmonaire
@@ -554,31 +639,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>S%C3%A9quence_de_Potter</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Séquence_de_Potter</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/S%C3%A9quence_de_Potter</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Conseil génétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
